--- a/NformTester/NformTester/Keywordscripts/600.20.20.180_DatabaseErrorDoNotOccurWhenModifyAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.180_DatabaseErrorDoNotOccurWhenModifyAction.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7486" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3747,6 +3747,10 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>"myRead-data"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3991,7 +3995,35 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4008,74 +4040,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4507,7 +4471,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4784,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4998,7 +4962,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="16">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -5897,7 +5861,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -6163,7 +6127,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -6309,14 +6273,12 @@
         <v>306</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>822</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -6329,13 +6291,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>2</v>
@@ -6353,13 +6315,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>801</v>
+        <v>790</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>2</v>
@@ -6377,16 +6339,20 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F59" s="8">
-        <v>5</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>822</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -6405,7 +6371,7 @@
         <v>306</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>2</v>
@@ -6418,16 +6384,22 @@
       <c r="M60" s="8"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="3:14" ht="15">
+    <row r="61" spans="3:14">
       <c r="C61" s="8">
         <v>60</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -6441,10 +6413,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="F62" s="8">
         <v>5</v>
@@ -6466,40 +6438,34 @@
         <v>788</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="3:14">
+    <row r="64" spans="3:14" ht="15">
       <c r="C64" s="8">
         <v>63</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="D64" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -6511,20 +6477,16 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="F65" s="8">
+        <v>5</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -6532,24 +6494,24 @@
       <c r="M65" s="8"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="3:14" ht="14.25">
+    <row r="66" spans="3:14">
       <c r="C66" s="8">
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>806</v>
+        <v>19</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="8"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -6563,17 +6525,17 @@
       <c r="D67" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>585</v>
+      <c r="E67" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -6591,34 +6553,38 @@
         <v>806</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="3:14">
+    <row r="69" spans="3:14" ht="14.25">
       <c r="C69" s="8">
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F69" s="8">
-        <v>3</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+        <v>806</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="13"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -6626,27 +6592,97 @@
       <c r="M69" s="8"/>
       <c r="N69" s="10"/>
     </row>
+    <row r="70" spans="3:14">
+      <c r="C70" s="8">
+        <v>69</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="3:14">
+      <c r="C71" s="8">
+        <v>70</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" spans="3:14">
+      <c r="C72" s="8">
+        <v>71</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F72" s="8">
+        <v>3</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N69">
-    <cfRule type="cellIs" dxfId="1" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N72">
+    <cfRule type="cellIs" dxfId="5" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66:G69 G2:G64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69:G72 G2:G67">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69 D63 D46:D52 D55:D60 D44 D37:D40 D7:D22 D3 D26 D28:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72 D66 D46:D52 D28:D35 D44 D37:D40 D7:D22 D3 D26 D55:D63">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E72">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.180_DatabaseErrorDoNotOccurWhenModifyAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.180_DatabaseErrorDoNotOccurWhenModifyAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1205,12 +1205,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7486" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3726,10 +3726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Modify this Readdata action.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3750,6 +3746,10 @@
   </si>
   <si>
     <t>"myRead-data"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3990,12 +3990,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4464,7 +4478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4748,10 +4762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4962,7 +4976,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="16">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -5340,7 +5354,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
@@ -5554,7 +5568,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8"/>
@@ -5682,7 +5696,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -5733,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -5759,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -5797,46 +5811,45 @@
       <c r="C37" s="8">
         <v>36</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="10"/>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="3:15">
       <c r="C38" s="8">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -5849,186 +5862,192 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="10"/>
+        <v>756</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="2"/>
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="8">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="I40" s="8"/>
+      <c r="D40" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="10"/>
+      <c r="N40" s="12"/>
     </row>
     <row r="41" spans="3:15">
       <c r="C41" s="8">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="2"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="3:15">
       <c r="C42" s="8">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="11" t="s">
         <v>788</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="3:15">
       <c r="C43" s="8">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="2"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="8">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>793</v>
+      <c r="D44" s="11" t="s">
+        <v>788</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="3:15" ht="15">
+    <row r="45" spans="3:15">
       <c r="C45" s="8">
         <v>44</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="10"/>
+      <c r="D45" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="2"/>
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="8">
         <v>45</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="8"/>
+      <c r="D46" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>829</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -6040,19 +6059,21 @@
       <c r="C47" s="8">
         <v>46</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="8"/>
+      <c r="D47" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>798</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -6064,124 +6085,110 @@
       <c r="C48" s="8">
         <v>47</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>799</v>
+      <c r="D48" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:15">
       <c r="C49" s="8">
         <v>48</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>799</v>
+      <c r="D49" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="10"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:15">
       <c r="C50" s="8">
         <v>49</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="10"/>
+        <v>306</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:15">
       <c r="C51" s="8">
         <v>50</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>788</v>
+      <c r="D51" s="5" t="s">
+        <v>793</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="J51" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="10"/>
+        <v>756</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:15" ht="15">
       <c r="C52" s="8">
         <v>51</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="D52" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -6190,71 +6197,73 @@
       <c r="M52" s="8"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:15">
       <c r="C53" s="8">
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>601</v>
+        <v>799</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="3:14">
+    <row r="54" spans="3:15">
       <c r="C54" s="8">
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>601</v>
+        <v>799</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="3:14">
+    <row r="55" spans="3:15">
       <c r="C55" s="8">
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>822</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -6262,47 +6271,49 @@
       <c r="M55" s="8"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="3:14">
+    <row r="56" spans="3:15">
       <c r="C56" s="8">
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:15">
       <c r="C57" s="8">
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>19</v>
+        <v>788</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>829</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -6310,31 +6321,37 @@
       <c r="M57" s="8"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="3:14">
+    <row r="58" spans="3:15">
       <c r="C58" s="8">
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>19</v>
+        <v>788</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="J58" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="3:14">
+    <row r="59" spans="3:15">
       <c r="C59" s="8">
         <v>58</v>
       </c>
@@ -6342,17 +6359,15 @@
         <v>788</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>822</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -6360,7 +6375,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:15">
       <c r="C60" s="8">
         <v>59</v>
       </c>
@@ -6368,60 +6383,62 @@
         <v>788</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>306</v>
+        <v>601</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:15">
       <c r="C61" s="8">
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>829</v>
+        <v>788</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="3:14">
+    <row r="62" spans="3:15">
       <c r="C62" s="8">
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F62" s="8">
-        <v>5</v>
-      </c>
-      <c r="G62" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -6430,7 +6447,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="3:14">
+    <row r="63" spans="3:15">
       <c r="C63" s="8">
         <v>62</v>
       </c>
@@ -6454,38 +6471,45 @@
       <c r="M63" s="8"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="3:14" ht="15">
+    <row r="64" spans="3:15">
       <c r="C64" s="8">
         <v>63</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="10"/>
+      <c r="D64" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="2"/>
     </row>
     <row r="65" spans="3:14">
       <c r="C65" s="8">
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F65" s="8">
-        <v>5</v>
-      </c>
-      <c r="G65" s="8"/>
+        <v>790</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -6499,19 +6523,19 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E66" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -6523,19 +6547,21 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -6547,20 +6573,18 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>578</v>
+        <v>184</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -6568,23 +6592,23 @@
       <c r="M68" s="8"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="3:14" ht="14.25">
+    <row r="69" spans="3:14">
       <c r="C69" s="8">
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -6597,18 +6621,16 @@
         <v>69</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6"/>
+        <v>793</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F70" s="8">
+        <v>5</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -6621,10 +6643,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>99</v>
@@ -6632,27 +6654,23 @@
       <c r="G71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="3:14">
+    <row r="72" spans="3:14" ht="15">
       <c r="C72" s="8">
         <v>71</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F72" s="8">
-        <v>3</v>
-      </c>
+      <c r="D72" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -6662,27 +6680,217 @@
       <c r="M72" s="8"/>
       <c r="N72" s="10"/>
     </row>
+    <row r="73" spans="3:14">
+      <c r="C73" s="8">
+        <v>72</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F73" s="8">
+        <v>5</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="3:14">
+      <c r="C74" s="8">
+        <v>73</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="3:14">
+      <c r="C75" s="8">
+        <v>74</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="3:14">
+      <c r="C76" s="8">
+        <v>75</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="3:14" ht="14.25">
+      <c r="C77" s="8">
+        <v>76</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="3:14">
+      <c r="C78" s="8">
+        <v>77</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" spans="3:14">
+      <c r="C79" s="8">
+        <v>78</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" spans="3:14">
+      <c r="C80" s="8">
+        <v>79</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F80" s="8">
+        <v>3</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N72">
-    <cfRule type="cellIs" dxfId="5" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N80">
+    <cfRule type="cellIs" dxfId="3" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69:G72 G2:G67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77:G80 G2:G75">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72 D66 D46:D52 D28:D35 D44 D37:D40 D7:D22 D3 D26 D55:D63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D80 D74 D53:D59 D28:D35 D51 D7:D22 D3 D26 D39:D47 D62:D71">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E80">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
